--- a/inst/extdata/multi_maladies_notifications.xlsx
+++ b/inst/extdata/multi_maladies_notifications.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -507,7 +507,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -562,7 +562,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2339,7 +2339,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2630,7 +2630,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2682,7 +2682,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2781,7 +2781,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -44496,7 +44496,7 @@
       </c>
       <c r="H856" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J856" t="inlineStr">
@@ -44541,7 +44541,7 @@
       </c>
       <c r="H857" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J857" t="inlineStr">
@@ -44591,7 +44591,7 @@
       </c>
       <c r="H858" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J858" t="inlineStr">
@@ -44646,7 +44646,7 @@
       </c>
       <c r="H859" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="I859" t="inlineStr">
@@ -44693,7 +44693,7 @@
       </c>
       <c r="H860" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J860" t="inlineStr">
@@ -44745,7 +44745,7 @@
       </c>
       <c r="H861" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="I861" t="inlineStr">
@@ -44802,7 +44802,7 @@
       </c>
       <c r="H862" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="I862" t="inlineStr">
@@ -44862,7 +44862,7 @@
       </c>
       <c r="H863" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J863" t="inlineStr">
@@ -44899,7 +44899,7 @@
       </c>
       <c r="H864" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J864" t="inlineStr">
@@ -44954,7 +44954,7 @@
       </c>
       <c r="H865" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="I865" t="inlineStr">
@@ -45011,7 +45011,7 @@
       </c>
       <c r="H866" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="I866" t="inlineStr">
@@ -45071,7 +45071,7 @@
       </c>
       <c r="H867" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="I867" t="inlineStr">
@@ -45131,7 +45131,7 @@
       </c>
       <c r="H868" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J868" t="inlineStr">
@@ -45186,7 +45186,7 @@
       </c>
       <c r="H869" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J869" t="inlineStr">
@@ -45238,7 +45238,7 @@
       </c>
       <c r="H870" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J870" t="inlineStr">
@@ -45290,7 +45290,7 @@
       </c>
       <c r="H871" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="I871" t="inlineStr">
@@ -45347,7 +45347,7 @@
       </c>
       <c r="H872" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J872" t="inlineStr">
@@ -45402,7 +45402,7 @@
       </c>
       <c r="H873" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J873" t="inlineStr">
@@ -45457,7 +45457,7 @@
       </c>
       <c r="H874" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="I874" t="inlineStr">
@@ -45514,7 +45514,7 @@
       </c>
       <c r="H875" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="I875" t="inlineStr">
@@ -45571,7 +45571,7 @@
       </c>
       <c r="H876" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J876" t="inlineStr">
@@ -45623,7 +45623,7 @@
       </c>
       <c r="H877" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J877" t="inlineStr">
@@ -45665,7 +45665,7 @@
       </c>
       <c r="H878" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="I878" t="inlineStr">
@@ -45722,7 +45722,7 @@
       </c>
       <c r="H879" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J879" t="inlineStr">
@@ -45777,7 +45777,7 @@
       </c>
       <c r="H880" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J880" t="inlineStr">
@@ -45822,7 +45822,7 @@
       </c>
       <c r="H881" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J881" t="inlineStr">
@@ -45877,7 +45877,7 @@
       </c>
       <c r="H882" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="I882" t="inlineStr">
@@ -45937,7 +45937,7 @@
       </c>
       <c r="H883" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J883" t="inlineStr">
@@ -45987,7 +45987,7 @@
       </c>
       <c r="H884" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="I884" t="inlineStr">
@@ -46042,7 +46042,7 @@
       </c>
       <c r="H885" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J885" t="inlineStr">
@@ -46097,7 +46097,7 @@
       </c>
       <c r="H886" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J886" t="inlineStr">
@@ -46152,7 +46152,7 @@
       </c>
       <c r="H887" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="I887" t="inlineStr">
@@ -46199,7 +46199,7 @@
       </c>
       <c r="H888" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J888" t="inlineStr">
@@ -46251,7 +46251,7 @@
       </c>
       <c r="H889" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="I889" t="inlineStr">
@@ -46311,7 +46311,7 @@
       </c>
       <c r="H890" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J890" t="inlineStr">
@@ -46363,7 +46363,7 @@
       </c>
       <c r="H891" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J891" t="inlineStr">
@@ -46415,7 +46415,7 @@
       </c>
       <c r="H892" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J892" t="inlineStr">
@@ -46452,7 +46452,7 @@
       </c>
       <c r="H893" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J893" t="inlineStr">
@@ -46504,7 +46504,7 @@
       </c>
       <c r="H894" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J894" t="inlineStr">
@@ -46556,7 +46556,7 @@
       </c>
       <c r="H895" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J895" t="inlineStr">
@@ -46608,7 +46608,7 @@
       </c>
       <c r="H896" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J896" t="inlineStr">
@@ -46653,7 +46653,7 @@
       </c>
       <c r="H897" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J897" t="inlineStr">
@@ -46700,7 +46700,7 @@
       </c>
       <c r="H898" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J898" t="inlineStr">
@@ -46745,7 +46745,7 @@
       </c>
       <c r="H899" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J899" t="inlineStr">
@@ -46800,7 +46800,7 @@
       </c>
       <c r="H900" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J900" t="inlineStr">
@@ -46852,7 +46852,7 @@
       </c>
       <c r="H901" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J901" t="inlineStr">
@@ -46907,7 +46907,7 @@
       </c>
       <c r="H902" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J902" t="inlineStr">
@@ -46959,7 +46959,7 @@
       </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J903" t="inlineStr">
@@ -47006,7 +47006,7 @@
       </c>
       <c r="H904" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="I904" t="inlineStr">
@@ -47063,7 +47063,7 @@
       </c>
       <c r="H905" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J905" t="inlineStr">
@@ -47105,7 +47105,7 @@
       </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J906" t="inlineStr">
@@ -47157,7 +47157,7 @@
       </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>yellow_fever</t>
+          <t>fievre jaune</t>
         </is>
       </c>
       <c r="J907" t="inlineStr">
